--- a/SalesAndInentoryWeb_Application/SalesAndInentoryWeb_Application/exportfile/ItemImport.xlsx
+++ b/SalesAndInentoryWeb_Application/SalesAndInentoryWeb_Application/exportfile/ItemImport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PurchasePrice</t>
   </si>
@@ -90,28 +90,7 @@
     <t>Barcode</t>
   </si>
   <si>
-    <t>kgkgfkjg</t>
-  </si>
-  <si>
-    <t>rereklt</t>
-  </si>
-  <si>
-    <t>rewktretro32tr</t>
-  </si>
-  <si>
-    <t>10/202</t>
-  </si>
-  <si>
-    <t>chtyapa</t>
-  </si>
-  <si>
-    <t>rewrererewrererwe</t>
-  </si>
-  <si>
     <t>SecondaryUnit</t>
-  </si>
-  <si>
-    <t>sada</t>
   </si>
 </sst>
 </file>
@@ -483,7 +462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -594,62 +573,6 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>12121</v>
-      </c>
-      <c r="H2">
-        <v>33</v>
-      </c>
-      <c r="I2">
-        <v>232</v>
-      </c>
-      <c r="J2">
-        <v>131</v>
-      </c>
-      <c r="K2">
-        <v>131</v>
-      </c>
-      <c r="L2">
-        <v>13131</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>3311</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2">
-        <v>32432435</v>
-      </c>
-      <c r="Q2">
-        <v>645645</v>
-      </c>
-      <c r="R2">
-        <v>45656</v>
       </c>
     </row>
   </sheetData>
